--- a/inventario_externo.xlsx
+++ b/inventario_externo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC47E6-F4C0-4308-8E6B-645239037285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A1890-9BF8-42CA-8133-06EA15539501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="1836" windowWidth="17280" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
@@ -39612,7 +39612,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inventario_externo.xlsx
+++ b/inventario_externo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A1890-9BF8-42CA-8133-06EA15539501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B38770-7635-4D7F-A3CF-2B19E014817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="1836" windowWidth="17280" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
+    <workbookView xWindow="6756" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -105,10 +105,13 @@
     <t>Dante</t>
   </si>
   <si>
-    <t>Miguel</t>
+    <t>Flavia</t>
   </si>
   <si>
-    <t>Flavia</t>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -39609,10 +39612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39719,7 +39722,7 @@
         <v>1009</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>2364.96</v>
@@ -39757,7 +39760,15 @@
         <v>1015</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/inventario_externo.xlsx
+++ b/inventario_externo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B38770-7635-4D7F-A3CF-2B19E014817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499CF64-4A08-4C43-959F-9A7EE9656742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6756" yWindow="2184" windowWidth="17280" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -105,13 +105,7 @@
     <t>Dante</t>
   </si>
   <si>
-    <t>Flavia</t>
-  </si>
-  <si>
     <t>Junior</t>
-  </si>
-  <si>
-    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -39612,10 +39606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39722,7 +39716,7 @@
         <v>1009</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>2364.96</v>
@@ -39755,22 +39749,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1015</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1020</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:N2" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/inventario_externo.xlsx
+++ b/inventario_externo.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499CF64-4A08-4C43-959F-9A7EE9656742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D303F4-2491-4572-8AA2-378F89A20B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
+    <workbookView xWindow="384" yWindow="1620" windowWidth="15360" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$N$2</definedName>
     <definedName name="a">[1]CLIENTES!$A$3:$T$9985</definedName>
     <definedName name="CODIGO">#REF!</definedName>
     <definedName name="ESPECIFICAÇÃO">#REF!</definedName>
@@ -46,66 +45,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>CÓDIGO</t>
+    <t>id</t>
   </si>
   <si>
-    <t>NCM</t>
+    <t>Código</t>
   </si>
   <si>
-    <t>ESPECIFICAÇÃO</t>
+    <t>Especificação</t>
   </si>
   <si>
-    <t>TIPO</t>
+    <t>Venda Unitário</t>
   </si>
   <si>
-    <t>FAMÍLIA</t>
+    <t>PFG132</t>
   </si>
   <si>
-    <t>ALT</t>
+    <t>Gira Gira com docinhos coloridos,  produzido em fibra de vidro e estrutura metálica</t>
   </si>
   <si>
-    <t>LARG</t>
+    <t>FG130C</t>
   </si>
   <si>
-    <t>COMP | PROF.</t>
+    <t>Escorregador, produzido em fibra de vidro e estrutura metálica, com pintura automotiva linha candy.</t>
   </si>
   <si>
-    <t>POT (W)</t>
+    <t>GRS01VD</t>
   </si>
   <si>
-    <t>MT. CORDA</t>
+    <t xml:space="preserve">M² de grama sintética verde 12mm </t>
   </si>
   <si>
-    <t>PESO</t>
+    <t>PFG18</t>
   </si>
   <si>
-    <t>VENDA</t>
+    <t>Cenoura inteira, produzida em fibra de vidro</t>
   </si>
   <si>
-    <t>LOCAÇÃO</t>
+    <t>PFG03PGLL</t>
   </si>
   <si>
-    <t>FIG. LUMINOSA</t>
+    <t>Ovo de páscoa na cor lilás com patinhas brancas, produzido em fibra de vidro</t>
   </si>
   <si>
-    <t>-</t>
+    <t>PFG03BMRS</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Braço de Luminária</t>
-  </si>
-  <si>
-    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Aplicação de mangueiras de LED com movimentos e Strobos</t>
-  </si>
-  <si>
-    <t>Dante</t>
-  </si>
-  <si>
-    <t>Junior</t>
+    <t>Ovo de páscoa na cor rosa com bolinhas brancas, produzido em fibra de vidro</t>
   </si>
 </sst>
 </file>
@@ -39606,10 +39593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}">
-  <dimension ref="A1:N3"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39629,128 +39617,105 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>16455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10392.824000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>997.09324000000026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1585.8960000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1008</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2364.96</v>
-      </c>
-      <c r="D2">
-        <v>1773.72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1.25</v>
-      </c>
-      <c r="J2">
-        <v>1.9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>238</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1009</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2364.96</v>
-      </c>
-      <c r="D3">
-        <v>1773.72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>1.25</v>
-      </c>
-      <c r="J3">
-        <v>1.9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>238</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
+      <c r="D7">
+        <v>679.88700000000006</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2" xr:uid="{A2CFABF0-0BF6-4509-B999-61E2BE6D3AB1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/inventario_externo.xlsx
+++ b/inventario_externo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D303F4-2491-4572-8AA2-378F89A20B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340781E0-194A-4824-AF98-969B82545FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1620" windowWidth="15360" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
+    <workbookView xWindow="6588" yWindow="2412" windowWidth="23040" windowHeight="8880" xr2:uid="{B9080B13-05B5-4FB9-AFA8-3F77C430D455}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -62,37 +62,7 @@
     <t>PFG132</t>
   </si>
   <si>
-    <t>Gira Gira com docinhos coloridos,  produzido em fibra de vidro e estrutura metálica</t>
-  </si>
-  <si>
-    <t>FG130C</t>
-  </si>
-  <si>
-    <t>Escorregador, produzido em fibra de vidro e estrutura metálica, com pintura automotiva linha candy.</t>
-  </si>
-  <si>
-    <t>GRS01VD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M² de grama sintética verde 12mm </t>
-  </si>
-  <si>
-    <t>PFG18</t>
-  </si>
-  <si>
-    <t>Cenoura inteira, produzida em fibra de vidro</t>
-  </si>
-  <si>
-    <t>PFG03PGLL</t>
-  </si>
-  <si>
-    <t>Ovo de páscoa na cor lilás com patinhas brancas, produzido em fibra de vidro</t>
-  </si>
-  <si>
-    <t>PFG03BMRS</t>
-  </si>
-  <si>
-    <t>Ovo de páscoa na cor rosa com bolinhas brancas, produzido em fibra de vidro</t>
+    <t>Gira Gira com docinhos coloridos, produzido em fibra de vidro e estrutura metálica</t>
   </si>
 </sst>
 </file>
@@ -103,7 +73,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +93,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,12 +108,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -148,9 +139,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moeda" xfId="4" builtinId="4"/>
@@ -39597,7 +39592,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39617,7 +39612,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -39631,91 +39626,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>16455</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>10392.824000000001</v>
-      </c>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>109</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>997.09324000000026</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1585.8960000000002</v>
-      </c>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>679.88700000000006</v>
-      </c>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>